--- a/utils/config/ReferenceLists/FishTaxonomy.xlsx
+++ b/utils/config/ReferenceLists/FishTaxonomy.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/jeremy_krogh_gov_bc_ca/Documents/Projects/2023/EMStoSamples/CanadaTestConfiguration/ReferenceLists/BuildItUp/AsBuiltTraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{1D471F98-CDFB-431B-952E-BDD677B6E6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB977C4D-6D1E-4DEB-A319-5BA63036BC73}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{1D471F98-CDFB-431B-952E-BDD677B6E6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{026C1C1F-7763-4297-A44B-355C87AD5463}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16440" windowWidth="29040" windowHeight="15840" xr2:uid="{5282EF3E-DB2F-4EF6-99E5-EF5DDD681F3E}"/>
+    <workbookView xWindow="-28920" yWindow="-3030" windowWidth="29040" windowHeight="15840" xr2:uid="{5282EF3E-DB2F-4EF6-99E5-EF5DDD681F3E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Taxonomy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -498,18 +498,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -552,7 +552,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -572,7 +572,7 @@
         <v>167229</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -592,7 +592,7 @@
         <v>161979</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -612,7 +612,7 @@
         <v>161977</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
